--- a/indxbase2023_1_2024.xlsx
+++ b/indxbase2023_1_2024.xlsx
@@ -6,9 +6,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ind_rep_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ind_reg_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ind_div_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ind_rep2023_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ind_reg2023_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ind_div2023_1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
